--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>CATI</t>
+  </si>
+  <si>
+    <t>Pollster</t>
+  </si>
+  <si>
+    <t>CAWI</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J8" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J9" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -795,17 +801,40 @@
       <c r="Y8" s="10"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="A9" s="5">
+        <v>45621.0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45622.0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K9" s="9">
+        <v>15.0</v>
+      </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J9" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J10" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -851,17 +851,40 @@
       <c r="Y9" s="10"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="A10" s="5">
+        <v>45632.0</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45634.0</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7">
+        <v>30.3</v>
+      </c>
+      <c r="F10" s="7">
+        <v>36.9</v>
+      </c>
+      <c r="G10" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="K10" s="9">
+        <v>12.3</v>
+      </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J10" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J11" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -901,17 +901,40 @@
       <c r="Y10" s="10"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="A11" s="5">
+        <v>45636.0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45637.0</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="7">
+        <v>28.7</v>
+      </c>
+      <c r="F11" s="7">
+        <v>41.96</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10.67</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3.26</v>
+      </c>
+      <c r="I11" s="7">
+        <v>12.68</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="1"/>
+        <v>2.73</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>startDate</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>CAWI</t>
+  </si>
+  <si>
+    <t>Opinia24</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J11" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J12" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -951,17 +954,40 @@
       <c r="Y11" s="10"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="A12" s="5">
+        <v>45629.0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45632.0</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7">
+        <v>23.3</v>
+      </c>
+      <c r="F12" s="7">
+        <v>38.6</v>
+      </c>
+      <c r="G12" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="I12" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="1"/>
+        <v>7.9</v>
+      </c>
+      <c r="K12" s="9">
+        <v>9.5</v>
+      </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>startDate</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Opinia24</t>
+  </si>
+  <si>
+    <t>IPSOS</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J12" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J15" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -1004,17 +1007,40 @@
       <c r="Y12" s="10"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="A13" s="5">
+        <v>45643.0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45644.0</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K13" s="9">
+        <v>12.0</v>
+      </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -1031,17 +1057,40 @@
       <c r="Y13" s="10"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="A14" s="5">
+        <v>45645.0</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45647.0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>35.7</v>
+      </c>
+      <c r="G14" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="9">
+        <v>10.8</v>
+      </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
@@ -1058,17 +1107,40 @@
       <c r="Y14" s="10"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="A15" s="5">
+        <v>45646.0</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45648.0</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="F15" s="7">
+        <v>36.2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>10.2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="I15" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="K15" s="9">
+        <v>7.6</v>
+      </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>startDate</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Hołownia</t>
   </si>
   <si>
-    <t>Dziemianowicz-Bąk</t>
+    <t>Biejat</t>
   </si>
   <si>
     <t>Mentzen</t>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>IPSOS</t>
+  </si>
+  <si>
+    <t>CBOS</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J15" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J18" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -1157,17 +1160,40 @@
       <c r="Y15" s="10"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="A16" s="5">
+        <v>45664.0</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45666.0</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="7">
+        <v>22.6</v>
+      </c>
+      <c r="F16" s="7">
+        <v>29.8</v>
+      </c>
+      <c r="G16" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="1"/>
+        <v>8.7</v>
+      </c>
+      <c r="K16" s="9">
+        <v>15.6</v>
+      </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
@@ -1184,17 +1210,40 @@
       <c r="Y16" s="10"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="A17" s="5">
+        <v>45667.0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45669.0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>34.2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="I17" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="1"/>
+        <v>4.9</v>
+      </c>
+      <c r="K17" s="9">
+        <v>7.6</v>
+      </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
@@ -1211,17 +1260,40 @@
       <c r="Y17" s="10"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="A18" s="5">
+        <v>45664.0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45665.0</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="9">
+        <v>8.0</v>
+      </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J18" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J21" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -1310,17 +1310,40 @@
       <c r="Y18" s="10"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="A19" s="5">
+        <v>45664.0</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45666.0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="7">
+        <v>22.6</v>
+      </c>
+      <c r="F19" s="7">
+        <v>29.8</v>
+      </c>
+      <c r="G19" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="I19" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="1"/>
+        <v>8.7</v>
+      </c>
+      <c r="K19" s="9">
+        <v>15.6</v>
+      </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
@@ -1337,17 +1360,40 @@
       <c r="Y19" s="10"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="A20" s="5">
+        <v>45667.0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45669.0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>34.2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="I20" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="1"/>
+        <v>4.9</v>
+      </c>
+      <c r="K20" s="9">
+        <v>7.6</v>
+      </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -1364,17 +1410,40 @@
       <c r="Y20" s="10"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="A21" s="5">
+        <v>45671.0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45673.0</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>32.0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="9">
+        <v>15.0</v>
+      </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J21" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J23" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -1460,17 +1460,40 @@
       <c r="Y21" s="10"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="A22" s="5">
+        <v>45673.0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45676.0</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="7">
+        <v>28.9</v>
+      </c>
+      <c r="F22" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="H22" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="K22" s="9">
+        <v>6.4</v>
+      </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -1487,17 +1510,40 @@
       <c r="Y22" s="10"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="A23" s="5">
+        <v>45674.0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45675.0</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>37.0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
   <si>
     <t>startDate</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>CBOS</t>
+  </si>
+  <si>
+    <t>SW Research</t>
+  </si>
+  <si>
+    <t>OGB</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J23" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J25" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -1560,17 +1566,40 @@
       <c r="Y23" s="10"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="A24" s="5">
+        <v>45677.0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45678.0</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>32.9</v>
+      </c>
+      <c r="G24" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="I24" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K24" s="9">
+        <v>7.7</v>
+      </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
@@ -1587,17 +1616,40 @@
       <c r="Y24" s="10"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="A25" s="5">
+        <v>45681.0</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45681.0</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="7">
+        <v>31.73</v>
+      </c>
+      <c r="F25" s="7">
+        <v>35.51</v>
+      </c>
+      <c r="G25" s="7">
+        <v>5.35</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3.14</v>
+      </c>
+      <c r="I25" s="7">
+        <v>15.68</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="1"/>
+        <v>8.59</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
     <t>startDate</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>SW Research</t>
-  </si>
-  <si>
-    <t>OGB</t>
   </si>
 </sst>
 </file>
@@ -494,7 +491,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J25" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J27" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -1617,38 +1614,38 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="5">
-        <v>45681.0</v>
+        <v>45674.0</v>
       </c>
       <c r="B25" s="5">
         <v>45681.0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" s="7">
-        <v>31.73</v>
+        <v>27.1</v>
       </c>
       <c r="F25" s="7">
-        <v>35.51</v>
+        <v>38.9</v>
       </c>
       <c r="G25" s="7">
-        <v>5.35</v>
+        <v>6.4</v>
       </c>
       <c r="H25" s="7">
-        <v>3.14</v>
+        <v>4.2</v>
       </c>
       <c r="I25" s="7">
-        <v>15.68</v>
+        <v>8.9</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" si="1"/>
-        <v>8.59</v>
+        <v>6</v>
       </c>
       <c r="K25" s="9">
-        <v>0.0</v>
+        <v>8.5</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -1666,17 +1663,40 @@
       <c r="Y25" s="10"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="A26" s="5">
+        <v>45677.0</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45681.0</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>35.3</v>
+      </c>
+      <c r="G26" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" si="1"/>
+        <v>7.7</v>
+      </c>
+      <c r="K26" s="9">
+        <v>12.7</v>
+      </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
@@ -1693,17 +1713,40 @@
       <c r="Y26" s="10"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="A27" s="5">
+        <v>45681.0</v>
+      </c>
+      <c r="B27" s="5">
+        <v>45683.0</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>37.8</v>
+      </c>
+      <c r="G27" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="I27" s="7">
+        <v>9.7</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="1"/>
+        <v>7.8</v>
+      </c>
+      <c r="K27" s="9">
+        <v>8.1</v>
+      </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
@@ -3691,31 +3734,31 @@
       <c r="Y100" s="10"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
       <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="10"/>
-      <c r="R101" s="10"/>
-      <c r="S101" s="10"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
-      <c r="X101" s="10"/>
-      <c r="Y101" s="10"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="14"/>
@@ -3754,7 +3797,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="8"/>
+      <c r="J103" s="3"/>
       <c r="K103" s="15"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
@@ -6472,17 +6515,17 @@
       <c r="Y203" s="4"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
-      <c r="A204" s="14"/>
-      <c r="B204" s="14"/>
-      <c r="C204" s="2"/>
+      <c r="A204" s="16"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="1"/>
       <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="15"/>
+      <c r="K204" s="3"/>
       <c r="L204" s="4"/>
       <c r="M204" s="4"/>
       <c r="N204" s="4"/>
@@ -6502,7 +6545,7 @@
       <c r="A205" s="16"/>
       <c r="B205" s="16"/>
       <c r="C205" s="1"/>
-      <c r="D205" s="2"/>
+      <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -6529,7 +6572,7 @@
       <c r="A206" s="16"/>
       <c r="B206" s="16"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
+      <c r="D206" s="2"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -6556,7 +6599,7 @@
       <c r="A207" s="16"/>
       <c r="B207" s="16"/>
       <c r="C207" s="1"/>
-      <c r="D207" s="2"/>
+      <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
@@ -7123,7 +7166,7 @@
       <c r="A228" s="16"/>
       <c r="B228" s="16"/>
       <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
+      <c r="D228" s="2"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -7150,7 +7193,7 @@
       <c r="A229" s="16"/>
       <c r="B229" s="16"/>
       <c r="C229" s="1"/>
-      <c r="D229" s="2"/>
+      <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -7474,7 +7517,7 @@
       <c r="A241" s="16"/>
       <c r="B241" s="16"/>
       <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
+      <c r="D241" s="2"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -7501,7 +7544,7 @@
       <c r="A242" s="16"/>
       <c r="B242" s="16"/>
       <c r="C242" s="1"/>
-      <c r="D242" s="2"/>
+      <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
@@ -7771,7 +7814,7 @@
       <c r="A252" s="16"/>
       <c r="B252" s="16"/>
       <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
+      <c r="D252" s="2"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -7798,7 +7841,7 @@
       <c r="A253" s="16"/>
       <c r="B253" s="16"/>
       <c r="C253" s="1"/>
-      <c r="D253" s="2"/>
+      <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
@@ -7984,8 +8027,8 @@
       <c r="Y259" s="4"/>
     </row>
     <row r="260" ht="12.75" customHeight="1">
-      <c r="A260" s="16"/>
-      <c r="B260" s="16"/>
+      <c r="A260" s="17"/>
+      <c r="B260" s="17"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -8011,17 +8054,17 @@
       <c r="Y260" s="4"/>
     </row>
     <row r="261" ht="12.75" customHeight="1">
-      <c r="A261" s="17"/>
-      <c r="B261" s="17"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
-      <c r="G261" s="1"/>
-      <c r="H261" s="1"/>
-      <c r="I261" s="1"/>
+      <c r="A261" s="18"/>
+      <c r="B261" s="18"/>
+      <c r="C261" s="19"/>
+      <c r="D261" s="19"/>
+      <c r="E261" s="19"/>
+      <c r="F261" s="19"/>
+      <c r="G261" s="19"/>
+      <c r="H261" s="19"/>
+      <c r="I261" s="19"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="3"/>
+      <c r="K261" s="15"/>
       <c r="L261" s="4"/>
       <c r="M261" s="4"/>
       <c r="N261" s="4"/>
@@ -8039,7 +8082,7 @@
     </row>
     <row r="262" ht="12.75" customHeight="1">
       <c r="A262" s="18"/>
-      <c r="B262" s="18"/>
+      <c r="B262" s="20"/>
       <c r="C262" s="19"/>
       <c r="D262" s="19"/>
       <c r="E262" s="19"/>
@@ -8065,7 +8108,7 @@
       <c r="Y262" s="4"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
-      <c r="A263" s="18"/>
+      <c r="A263" s="20"/>
       <c r="B263" s="20"/>
       <c r="C263" s="19"/>
       <c r="D263" s="19"/>
@@ -12089,7 +12132,7 @@
     </row>
     <row r="412" ht="12.75" customHeight="1">
       <c r="A412" s="20"/>
-      <c r="B412" s="20"/>
+      <c r="B412" s="18"/>
       <c r="C412" s="19"/>
       <c r="D412" s="19"/>
       <c r="E412" s="19"/>
@@ -12142,7 +12185,7 @@
       <c r="Y413" s="4"/>
     </row>
     <row r="414" ht="12.75" customHeight="1">
-      <c r="A414" s="20"/>
+      <c r="A414" s="18"/>
       <c r="B414" s="18"/>
       <c r="C414" s="19"/>
       <c r="D414" s="19"/>
@@ -12493,8 +12536,8 @@
       <c r="Y426" s="4"/>
     </row>
     <row r="427" ht="12.75" customHeight="1">
-      <c r="A427" s="18"/>
-      <c r="B427" s="18"/>
+      <c r="A427" s="20"/>
+      <c r="B427" s="20"/>
       <c r="C427" s="19"/>
       <c r="D427" s="19"/>
       <c r="E427" s="19"/>
@@ -12629,7 +12672,7 @@
     </row>
     <row r="432" ht="12.75" customHeight="1">
       <c r="A432" s="20"/>
-      <c r="B432" s="20"/>
+      <c r="B432" s="18"/>
       <c r="C432" s="19"/>
       <c r="D432" s="19"/>
       <c r="E432" s="19"/>
@@ -12655,7 +12698,7 @@
       <c r="Y432" s="4"/>
     </row>
     <row r="433" ht="12.75" customHeight="1">
-      <c r="A433" s="20"/>
+      <c r="A433" s="18"/>
       <c r="B433" s="18"/>
       <c r="C433" s="19"/>
       <c r="D433" s="19"/>
@@ -12763,7 +12806,7 @@
       <c r="Y436" s="4"/>
     </row>
     <row r="437" ht="12.75" customHeight="1">
-      <c r="A437" s="18"/>
+      <c r="A437" s="20"/>
       <c r="B437" s="18"/>
       <c r="C437" s="19"/>
       <c r="D437" s="19"/>
@@ -12790,7 +12833,7 @@
       <c r="Y437" s="4"/>
     </row>
     <row r="438" ht="12.75" customHeight="1">
-      <c r="A438" s="20"/>
+      <c r="A438" s="18"/>
       <c r="B438" s="18"/>
       <c r="C438" s="19"/>
       <c r="D438" s="19"/>
@@ -12952,8 +12995,8 @@
       <c r="Y443" s="4"/>
     </row>
     <row r="444" ht="12.75" customHeight="1">
-      <c r="A444" s="18"/>
-      <c r="B444" s="18"/>
+      <c r="A444" s="20"/>
+      <c r="B444" s="20"/>
       <c r="C444" s="19"/>
       <c r="D444" s="19"/>
       <c r="E444" s="19"/>
@@ -13087,8 +13130,8 @@
       <c r="Y448" s="4"/>
     </row>
     <row r="449" ht="12.75" customHeight="1">
-      <c r="A449" s="20"/>
-      <c r="B449" s="20"/>
+      <c r="A449" s="18"/>
+      <c r="B449" s="18"/>
       <c r="C449" s="19"/>
       <c r="D449" s="19"/>
       <c r="E449" s="19"/>
@@ -13114,7 +13157,7 @@
       <c r="Y449" s="4"/>
     </row>
     <row r="450" ht="12.75" customHeight="1">
-      <c r="A450" s="18"/>
+      <c r="A450" s="20"/>
       <c r="B450" s="18"/>
       <c r="C450" s="19"/>
       <c r="D450" s="19"/>
@@ -13168,7 +13211,7 @@
       <c r="Y451" s="4"/>
     </row>
     <row r="452" ht="12.75" customHeight="1">
-      <c r="A452" s="20"/>
+      <c r="A452" s="18"/>
       <c r="B452" s="18"/>
       <c r="C452" s="19"/>
       <c r="D452" s="19"/>
@@ -13385,7 +13428,7 @@
     </row>
     <row r="460" ht="12.75" customHeight="1">
       <c r="A460" s="18"/>
-      <c r="B460" s="18"/>
+      <c r="B460" s="20"/>
       <c r="C460" s="19"/>
       <c r="D460" s="19"/>
       <c r="E460" s="19"/>
@@ -13411,7 +13454,7 @@
       <c r="Y460" s="4"/>
     </row>
     <row r="461" ht="12.75" customHeight="1">
-      <c r="A461" s="18"/>
+      <c r="A461" s="20"/>
       <c r="B461" s="20"/>
       <c r="C461" s="19"/>
       <c r="D461" s="19"/>
@@ -15031,17 +15074,17 @@
       <c r="Y520" s="4"/>
     </row>
     <row r="521" ht="12.75" customHeight="1">
-      <c r="A521" s="20"/>
-      <c r="B521" s="20"/>
-      <c r="C521" s="19"/>
-      <c r="D521" s="19"/>
-      <c r="E521" s="19"/>
-      <c r="F521" s="19"/>
-      <c r="G521" s="19"/>
-      <c r="H521" s="19"/>
-      <c r="I521" s="19"/>
-      <c r="J521" s="3"/>
-      <c r="K521" s="15"/>
+      <c r="A521" s="4"/>
+      <c r="B521" s="4"/>
+      <c r="C521" s="4"/>
+      <c r="D521" s="4"/>
+      <c r="E521" s="4"/>
+      <c r="F521" s="4"/>
+      <c r="G521" s="4"/>
+      <c r="H521" s="4"/>
+      <c r="I521" s="4"/>
+      <c r="J521" s="4"/>
+      <c r="K521" s="3"/>
       <c r="L521" s="4"/>
       <c r="M521" s="4"/>
       <c r="N521" s="4"/>
@@ -27909,33 +27952,6 @@
       <c r="X997" s="4"/>
       <c r="Y997" s="4"/>
     </row>
-    <row r="998" ht="12.75" customHeight="1">
-      <c r="A998" s="4"/>
-      <c r="B998" s="4"/>
-      <c r="C998" s="4"/>
-      <c r="D998" s="4"/>
-      <c r="E998" s="4"/>
-      <c r="F998" s="4"/>
-      <c r="G998" s="4"/>
-      <c r="H998" s="4"/>
-      <c r="I998" s="4"/>
-      <c r="J998" s="4"/>
-      <c r="K998" s="3"/>
-      <c r="L998" s="4"/>
-      <c r="M998" s="4"/>
-      <c r="N998" s="4"/>
-      <c r="O998" s="4"/>
-      <c r="P998" s="4"/>
-      <c r="Q998" s="4"/>
-      <c r="R998" s="4"/>
-      <c r="S998" s="4"/>
-      <c r="T998" s="4"/>
-      <c r="U998" s="4"/>
-      <c r="V998" s="4"/>
-      <c r="W998" s="4"/>
-      <c r="X998" s="4"/>
-      <c r="Y998" s="4"/>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0527777777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.0527777777777778"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
   <si>
     <t>startDate</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>SW Research</t>
+  </si>
+  <si>
+    <t>Research Partner</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J27" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J29" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -1763,17 +1766,40 @@
       <c r="Y27" s="10"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="A28" s="5">
+        <v>45681.0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45684.0</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="F28" s="7">
+        <v>34.1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>8.3</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="K28" s="9">
+        <v>10.3</v>
+      </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
@@ -1790,17 +1816,40 @@
       <c r="Y28" s="10"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="A29" s="5">
+        <v>45688.0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>45690.0</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="F29" s="7">
+        <v>37.3</v>
+      </c>
+      <c r="G29" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="H29" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="J29" s="8">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
+      </c>
+      <c r="K29" s="9">
+        <v>11.0</v>
+      </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>startDate</t>
   </si>
@@ -494,7 +494,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J29" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J34" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -1866,17 +1866,40 @@
       <c r="Y29" s="10"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="A30" s="5">
+        <v>45680.0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45686.0</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>32.0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="J30" s="8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K30" s="9">
+        <v>7.0</v>
+      </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
@@ -1893,17 +1916,40 @@
       <c r="Y30" s="10"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="A31" s="5">
+        <v>45695.0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>45697.0</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="F31" s="7">
+        <v>36.7</v>
+      </c>
+      <c r="G31" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>9.8</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" si="1"/>
+        <v>8.2</v>
+      </c>
+      <c r="K31" s="9">
+        <v>8.4</v>
+      </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
@@ -1920,17 +1966,40 @@
       <c r="Y31" s="10"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="A32" s="5">
+        <v>45696.0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>45698.0</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="J32" s="8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -1947,17 +2016,40 @@
       <c r="Y32" s="10"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="A33" s="5">
+        <v>45698.0</v>
+      </c>
+      <c r="B33" s="5">
+        <v>45701.0</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="7">
+        <v>21.7</v>
+      </c>
+      <c r="F33" s="7">
+        <v>30.9</v>
+      </c>
+      <c r="G33" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="I33" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="J33" s="8">
+        <f t="shared" si="1"/>
+        <v>9.8</v>
+      </c>
+      <c r="K33" s="9">
+        <v>14.0</v>
+      </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
@@ -1974,17 +2066,40 @@
       <c r="Y33" s="10"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="A34" s="5">
+        <v>45705.0</v>
+      </c>
+      <c r="B34" s="5">
+        <v>45706.0</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="J34" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K34" s="9">
+        <v>9.0</v>
+      </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
   <si>
     <t>startDate</t>
   </si>
@@ -494,7 +494,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J34" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J37" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -2116,17 +2116,40 @@
       <c r="Y34" s="10"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="A35" s="5">
+        <v>45707.0</v>
+      </c>
+      <c r="B35" s="5">
+        <v>45709.0</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="F35" s="7">
+        <v>35.2</v>
+      </c>
+      <c r="G35" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="I35" s="7">
+        <v>15.7</v>
+      </c>
+      <c r="J35" s="8">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="K35" s="9">
+        <v>9.9</v>
+      </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
@@ -2143,17 +2166,40 @@
       <c r="Y35" s="10"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="A36" s="5">
+        <v>45705.0</v>
+      </c>
+      <c r="B36" s="5">
+        <v>45709.0</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="F36" s="7">
+        <v>34.9</v>
+      </c>
+      <c r="G36" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="H36" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>13.6</v>
+      </c>
+      <c r="J36" s="8">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+      <c r="K36" s="9">
+        <v>10.8</v>
+      </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
@@ -2170,17 +2216,40 @@
       <c r="Y36" s="10"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="A37" s="5">
+        <v>45709.0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>45712.0</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="F37" s="7">
+        <v>34.1</v>
+      </c>
+      <c r="G37" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="H37" s="7">
+        <v>4.4</v>
+      </c>
+      <c r="I37" s="7">
+        <v>16.2</v>
+      </c>
+      <c r="J37" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K37" s="9">
+        <v>6.5</v>
+      </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>startDate</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Research Partner</t>
+  </si>
+  <si>
+    <t>Social Changes</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J37" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J44" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -2266,17 +2269,40 @@
       <c r="Y37" s="10"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="A38" s="5">
+        <v>45709.0</v>
+      </c>
+      <c r="B38" s="5">
+        <v>45712.0</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="F38" s="7">
+        <v>33.7</v>
+      </c>
+      <c r="G38" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="H38" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="K38" s="9">
+        <v>8.2</v>
+      </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
@@ -2293,17 +2319,40 @@
       <c r="Y38" s="10"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="A39" s="5">
+        <v>45713.0</v>
+      </c>
+      <c r="B39" s="5">
+        <v>45714.0</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="F39" s="7">
+        <v>33.6</v>
+      </c>
+      <c r="G39" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="I39" s="7">
+        <v>18.9</v>
+      </c>
+      <c r="J39" s="8">
+        <f t="shared" si="1"/>
+        <v>11.4</v>
+      </c>
+      <c r="K39" s="9">
+        <v>9.9</v>
+      </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
@@ -2320,17 +2369,40 @@
       <c r="Y39" s="10"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="A40" s="5">
+        <v>45719.0</v>
+      </c>
+      <c r="B40" s="5">
+        <v>45722.0</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K40" s="9">
+        <v>7.0</v>
+      </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
@@ -2347,17 +2419,40 @@
       <c r="Y40" s="10"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="A41" s="5">
+        <v>45723.0</v>
+      </c>
+      <c r="B41" s="5">
+        <v>45725.0</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>37.0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
@@ -2374,17 +2469,40 @@
       <c r="Y41" s="10"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="A42" s="5">
+        <v>45723.0</v>
+      </c>
+      <c r="B42" s="5">
+        <v>45725.0</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="F42" s="7">
+        <v>35.9</v>
+      </c>
+      <c r="G42" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="I42" s="7">
+        <v>19.4</v>
+      </c>
+      <c r="J42" s="8">
+        <f t="shared" si="1"/>
+        <v>5.1</v>
+      </c>
+      <c r="K42" s="9">
+        <v>6.8</v>
+      </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
@@ -2401,17 +2519,40 @@
       <c r="Y42" s="10"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="A43" s="5">
+        <v>45724.0</v>
+      </c>
+      <c r="B43" s="5">
+        <v>45726.0</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="J43" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K43" s="9">
+        <v>7.0</v>
+      </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
@@ -2428,17 +2569,40 @@
       <c r="Y43" s="10"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="A44" s="5">
+        <v>45727.0</v>
+      </c>
+      <c r="B44" s="5">
+        <v>45729.0</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>36.0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="J44" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K44" s="9">
+        <v>9.0</v>
+      </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
   <si>
     <t>startDate</t>
   </si>
@@ -497,7 +497,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J44" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J46" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -2619,17 +2619,40 @@
       <c r="Y44" s="10"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="A45" s="5">
+        <v>45726.0</v>
+      </c>
+      <c r="B45" s="5">
+        <v>45729.0</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="F45" s="7">
+        <v>32.0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="I45" s="7">
+        <v>18.9</v>
+      </c>
+      <c r="J45" s="8">
+        <f t="shared" si="1"/>
+        <v>7.8</v>
+      </c>
+      <c r="K45" s="9">
+        <v>14.3</v>
+      </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
@@ -2646,17 +2669,40 @@
       <c r="Y45" s="10"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
+      <c r="A46" s="5">
+        <v>45729.0</v>
+      </c>
+      <c r="B46" s="5">
+        <v>45732.0</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="F46" s="7">
+        <v>36.4</v>
+      </c>
+      <c r="G46" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="H46" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="I46" s="7">
+        <v>18.1</v>
+      </c>
+      <c r="J46" s="8">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+      <c r="K46" s="9">
+        <v>5.4</v>
+      </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="23">
   <si>
     <t>startDate</t>
   </si>
@@ -497,7 +497,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J46" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J47" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -2719,17 +2719,40 @@
       <c r="Y46" s="10"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="A47" s="5">
+        <v>45733.0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>45737.0</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="7">
+        <v>20.4</v>
+      </c>
+      <c r="F47" s="7">
+        <v>36.3</v>
+      </c>
+      <c r="G47" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="H47" s="7">
+        <v>2.3</v>
+      </c>
+      <c r="I47" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="J47" s="8">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
+      <c r="K47" s="9">
+        <v>9.0</v>
+      </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="23">
   <si>
     <t>startDate</t>
   </si>
@@ -497,7 +497,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J47" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J50" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -2769,17 +2769,40 @@
       <c r="Y47" s="10"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+      <c r="A48" s="5">
+        <v>45733.0</v>
+      </c>
+      <c r="B48" s="5">
+        <v>45736.0</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="J48" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K48" s="9">
+        <v>7.0</v>
+      </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
@@ -2796,17 +2819,40 @@
       <c r="Y48" s="10"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="A49" s="5">
+        <v>45737.0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>45739.0</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="F49" s="7">
+        <v>33.2</v>
+      </c>
+      <c r="G49" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H49" s="7">
+        <v>4.4</v>
+      </c>
+      <c r="I49" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="J49" s="8">
+        <f t="shared" si="1"/>
+        <v>5.3</v>
+      </c>
+      <c r="K49" s="9">
+        <v>8.8</v>
+      </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
@@ -2823,17 +2869,40 @@
       <c r="Y49" s="10"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="A50" s="5">
+        <v>45737.0</v>
+      </c>
+      <c r="B50" s="5">
+        <v>45740.0</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="7">
+        <v>22.2</v>
+      </c>
+      <c r="F50" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="G50" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="H50" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="I50" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="J50" s="8">
+        <f t="shared" si="1"/>
+        <v>7.9</v>
+      </c>
+      <c r="K50" s="9">
+        <v>8.8</v>
+      </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="23">
   <si>
     <t>startDate</t>
   </si>
@@ -497,7 +497,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J50" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J53" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -2919,17 +2919,40 @@
       <c r="Y50" s="10"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="A51" s="5">
+        <v>45747.0</v>
+      </c>
+      <c r="B51" s="5">
+        <v>45748.0</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>19.0</v>
+      </c>
+      <c r="J51" s="8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
@@ -2946,17 +2969,40 @@
       <c r="Y51" s="10"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
+      <c r="A52" s="5">
+        <v>45751.0</v>
+      </c>
+      <c r="B52" s="5">
+        <v>45751.0</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="7">
+        <v>22.6</v>
+      </c>
+      <c r="F52" s="7">
+        <v>36.2</v>
+      </c>
+      <c r="G52" s="7">
+        <v>8.3</v>
+      </c>
+      <c r="H52" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="I52" s="7">
+        <v>17.4</v>
+      </c>
+      <c r="J52" s="8">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+      <c r="K52" s="9">
+        <v>7.2</v>
+      </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
@@ -2973,17 +3019,40 @@
       <c r="Y52" s="10"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
+      <c r="A53" s="5">
+        <v>45751.0</v>
+      </c>
+      <c r="B53" s="5">
+        <v>45753.0</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="7">
+        <v>20.1</v>
+      </c>
+      <c r="F53" s="7">
+        <v>38.3</v>
+      </c>
+      <c r="G53" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="H53" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="I53" s="7">
+        <v>18.8</v>
+      </c>
+      <c r="J53" s="8">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="K53" s="9">
+        <v>8.5</v>
+      </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="23">
   <si>
     <t>startDate</t>
   </si>
@@ -497,7 +497,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J53" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J57" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -3069,17 +3069,40 @@
       <c r="Y53" s="10"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
+      <c r="A54" s="5">
+        <v>45749.0</v>
+      </c>
+      <c r="B54" s="5">
+        <v>45753.0</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>36.0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="J54" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K54" s="9">
+        <v>7.0</v>
+      </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
@@ -3096,17 +3119,40 @@
       <c r="Y54" s="10"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+      <c r="A55" s="5">
+        <v>45754.0</v>
+      </c>
+      <c r="B55" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="7">
+        <v>20.1</v>
+      </c>
+      <c r="F55" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="G55" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="H55" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I55" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="J55" s="8">
+        <f t="shared" si="1"/>
+        <v>11.9</v>
+      </c>
+      <c r="K55" s="9">
+        <v>14.5</v>
+      </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
@@ -3123,17 +3169,40 @@
       <c r="Y55" s="10"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
+      <c r="A56" s="5">
+        <v>45754.0</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="J56" s="8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K56" s="9">
+        <v>7.0</v>
+      </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
@@ -3150,17 +3219,40 @@
       <c r="Y56" s="10"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
+      <c r="A57" s="5">
+        <v>45759.0</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45759.0</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="F57" s="7">
+        <v>33.5</v>
+      </c>
+      <c r="G57" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="H57" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I57" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="J57" s="8">
+        <f t="shared" si="1"/>
+        <v>4.4</v>
+      </c>
+      <c r="K57" s="9">
+        <v>7.8</v>
+      </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="24">
   <si>
     <t>startDate</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Social Changes</t>
+  </si>
+  <si>
+    <t>OGB</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J57" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J61" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -3269,17 +3272,40 @@
       <c r="Y57" s="10"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
+      <c r="A58" s="5">
+        <v>45758.0</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45760.0</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="7">
+        <v>22.7</v>
+      </c>
+      <c r="F58" s="7">
+        <v>34.8</v>
+      </c>
+      <c r="G58" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="H58" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="I58" s="7">
+        <v>15.8</v>
+      </c>
+      <c r="J58" s="8">
+        <f t="shared" si="1"/>
+        <v>10.2</v>
+      </c>
+      <c r="K58" s="9">
+        <v>6.4</v>
+      </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
@@ -3296,17 +3322,40 @@
       <c r="Y58" s="10"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
+      <c r="A59" s="5">
+        <v>45761.0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="J59" s="8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K59" s="9">
+        <v>6.0</v>
+      </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
@@ -3323,17 +3372,40 @@
       <c r="Y59" s="10"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
+      <c r="A60" s="5">
+        <v>45762.0</v>
+      </c>
+      <c r="B60" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="J60" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K60" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
@@ -3350,17 +3422,40 @@
       <c r="Y60" s="10"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
+      <c r="A61" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="B61" s="5">
+        <v>45761.0</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="7">
+        <v>29.56</v>
+      </c>
+      <c r="F61" s="7">
+        <v>35.53</v>
+      </c>
+      <c r="G61" s="7">
+        <v>3.44</v>
+      </c>
+      <c r="H61" s="7">
+        <v>1.87</v>
+      </c>
+      <c r="I61" s="7">
+        <v>20.43</v>
+      </c>
+      <c r="J61" s="8">
+        <f t="shared" si="1"/>
+        <v>9.17</v>
+      </c>
+      <c r="K61" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
@@ -4403,31 +4498,31 @@
       <c r="Y99" s="10"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
       <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="10"/>
-      <c r="R100" s="10"/>
-      <c r="S100" s="10"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
-      <c r="V100" s="10"/>
-      <c r="W100" s="10"/>
-      <c r="X100" s="10"/>
-      <c r="Y100" s="10"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="14"/>
@@ -4466,7 +4561,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-      <c r="J102" s="8"/>
+      <c r="J102" s="3"/>
       <c r="K102" s="15"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -7184,17 +7279,17 @@
       <c r="Y202" s="4"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
-      <c r="A203" s="14"/>
-      <c r="B203" s="14"/>
-      <c r="C203" s="2"/>
+      <c r="A203" s="16"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="1"/>
       <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="15"/>
+      <c r="K203" s="3"/>
       <c r="L203" s="4"/>
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
@@ -7214,7 +7309,7 @@
       <c r="A204" s="16"/>
       <c r="B204" s="16"/>
       <c r="C204" s="1"/>
-      <c r="D204" s="2"/>
+      <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -7241,7 +7336,7 @@
       <c r="A205" s="16"/>
       <c r="B205" s="16"/>
       <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
+      <c r="D205" s="2"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -7268,7 +7363,7 @@
       <c r="A206" s="16"/>
       <c r="B206" s="16"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="2"/>
+      <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -7835,7 +7930,7 @@
       <c r="A227" s="16"/>
       <c r="B227" s="16"/>
       <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
+      <c r="D227" s="2"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -7862,7 +7957,7 @@
       <c r="A228" s="16"/>
       <c r="B228" s="16"/>
       <c r="C228" s="1"/>
-      <c r="D228" s="2"/>
+      <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -8186,7 +8281,7 @@
       <c r="A240" s="16"/>
       <c r="B240" s="16"/>
       <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
+      <c r="D240" s="2"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -8213,7 +8308,7 @@
       <c r="A241" s="16"/>
       <c r="B241" s="16"/>
       <c r="C241" s="1"/>
-      <c r="D241" s="2"/>
+      <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -8483,7 +8578,7 @@
       <c r="A251" s="16"/>
       <c r="B251" s="16"/>
       <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
+      <c r="D251" s="2"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -8510,7 +8605,7 @@
       <c r="A252" s="16"/>
       <c r="B252" s="16"/>
       <c r="C252" s="1"/>
-      <c r="D252" s="2"/>
+      <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -8696,8 +8791,8 @@
       <c r="Y258" s="4"/>
     </row>
     <row r="259" ht="12.75" customHeight="1">
-      <c r="A259" s="16"/>
-      <c r="B259" s="16"/>
+      <c r="A259" s="17"/>
+      <c r="B259" s="17"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -8723,17 +8818,17 @@
       <c r="Y259" s="4"/>
     </row>
     <row r="260" ht="12.75" customHeight="1">
-      <c r="A260" s="17"/>
-      <c r="B260" s="17"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
-      <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
-      <c r="I260" s="1"/>
+      <c r="A260" s="18"/>
+      <c r="B260" s="18"/>
+      <c r="C260" s="19"/>
+      <c r="D260" s="19"/>
+      <c r="E260" s="19"/>
+      <c r="F260" s="19"/>
+      <c r="G260" s="19"/>
+      <c r="H260" s="19"/>
+      <c r="I260" s="19"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="3"/>
+      <c r="K260" s="15"/>
       <c r="L260" s="4"/>
       <c r="M260" s="4"/>
       <c r="N260" s="4"/>
@@ -8751,7 +8846,7 @@
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="18"/>
-      <c r="B261" s="18"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="19"/>
       <c r="D261" s="19"/>
       <c r="E261" s="19"/>
@@ -8777,7 +8872,7 @@
       <c r="Y261" s="4"/>
     </row>
     <row r="262" ht="12.75" customHeight="1">
-      <c r="A262" s="18"/>
+      <c r="A262" s="20"/>
       <c r="B262" s="20"/>
       <c r="C262" s="19"/>
       <c r="D262" s="19"/>
@@ -12801,7 +12896,7 @@
     </row>
     <row r="411" ht="12.75" customHeight="1">
       <c r="A411" s="20"/>
-      <c r="B411" s="20"/>
+      <c r="B411" s="18"/>
       <c r="C411" s="19"/>
       <c r="D411" s="19"/>
       <c r="E411" s="19"/>
@@ -12854,7 +12949,7 @@
       <c r="Y412" s="4"/>
     </row>
     <row r="413" ht="12.75" customHeight="1">
-      <c r="A413" s="20"/>
+      <c r="A413" s="18"/>
       <c r="B413" s="18"/>
       <c r="C413" s="19"/>
       <c r="D413" s="19"/>
@@ -13205,8 +13300,8 @@
       <c r="Y425" s="4"/>
     </row>
     <row r="426" ht="12.75" customHeight="1">
-      <c r="A426" s="18"/>
-      <c r="B426" s="18"/>
+      <c r="A426" s="20"/>
+      <c r="B426" s="20"/>
       <c r="C426" s="19"/>
       <c r="D426" s="19"/>
       <c r="E426" s="19"/>
@@ -13341,7 +13436,7 @@
     </row>
     <row r="431" ht="12.75" customHeight="1">
       <c r="A431" s="20"/>
-      <c r="B431" s="20"/>
+      <c r="B431" s="18"/>
       <c r="C431" s="19"/>
       <c r="D431" s="19"/>
       <c r="E431" s="19"/>
@@ -13367,7 +13462,7 @@
       <c r="Y431" s="4"/>
     </row>
     <row r="432" ht="12.75" customHeight="1">
-      <c r="A432" s="20"/>
+      <c r="A432" s="18"/>
       <c r="B432" s="18"/>
       <c r="C432" s="19"/>
       <c r="D432" s="19"/>
@@ -13475,7 +13570,7 @@
       <c r="Y435" s="4"/>
     </row>
     <row r="436" ht="12.75" customHeight="1">
-      <c r="A436" s="18"/>
+      <c r="A436" s="20"/>
       <c r="B436" s="18"/>
       <c r="C436" s="19"/>
       <c r="D436" s="19"/>
@@ -13502,7 +13597,7 @@
       <c r="Y436" s="4"/>
     </row>
     <row r="437" ht="12.75" customHeight="1">
-      <c r="A437" s="20"/>
+      <c r="A437" s="18"/>
       <c r="B437" s="18"/>
       <c r="C437" s="19"/>
       <c r="D437" s="19"/>
@@ -13664,8 +13759,8 @@
       <c r="Y442" s="4"/>
     </row>
     <row r="443" ht="12.75" customHeight="1">
-      <c r="A443" s="18"/>
-      <c r="B443" s="18"/>
+      <c r="A443" s="20"/>
+      <c r="B443" s="20"/>
       <c r="C443" s="19"/>
       <c r="D443" s="19"/>
       <c r="E443" s="19"/>
@@ -13799,8 +13894,8 @@
       <c r="Y447" s="4"/>
     </row>
     <row r="448" ht="12.75" customHeight="1">
-      <c r="A448" s="20"/>
-      <c r="B448" s="20"/>
+      <c r="A448" s="18"/>
+      <c r="B448" s="18"/>
       <c r="C448" s="19"/>
       <c r="D448" s="19"/>
       <c r="E448" s="19"/>
@@ -13826,7 +13921,7 @@
       <c r="Y448" s="4"/>
     </row>
     <row r="449" ht="12.75" customHeight="1">
-      <c r="A449" s="18"/>
+      <c r="A449" s="20"/>
       <c r="B449" s="18"/>
       <c r="C449" s="19"/>
       <c r="D449" s="19"/>
@@ -13880,7 +13975,7 @@
       <c r="Y450" s="4"/>
     </row>
     <row r="451" ht="12.75" customHeight="1">
-      <c r="A451" s="20"/>
+      <c r="A451" s="18"/>
       <c r="B451" s="18"/>
       <c r="C451" s="19"/>
       <c r="D451" s="19"/>
@@ -14097,7 +14192,7 @@
     </row>
     <row r="459" ht="12.75" customHeight="1">
       <c r="A459" s="18"/>
-      <c r="B459" s="18"/>
+      <c r="B459" s="20"/>
       <c r="C459" s="19"/>
       <c r="D459" s="19"/>
       <c r="E459" s="19"/>
@@ -14123,7 +14218,7 @@
       <c r="Y459" s="4"/>
     </row>
     <row r="460" ht="12.75" customHeight="1">
-      <c r="A460" s="18"/>
+      <c r="A460" s="20"/>
       <c r="B460" s="20"/>
       <c r="C460" s="19"/>
       <c r="D460" s="19"/>
@@ -15743,17 +15838,17 @@
       <c r="Y519" s="4"/>
     </row>
     <row r="520" ht="12.75" customHeight="1">
-      <c r="A520" s="20"/>
-      <c r="B520" s="20"/>
-      <c r="C520" s="19"/>
-      <c r="D520" s="19"/>
-      <c r="E520" s="19"/>
-      <c r="F520" s="19"/>
-      <c r="G520" s="19"/>
-      <c r="H520" s="19"/>
-      <c r="I520" s="19"/>
-      <c r="J520" s="3"/>
-      <c r="K520" s="15"/>
+      <c r="A520" s="4"/>
+      <c r="B520" s="4"/>
+      <c r="C520" s="4"/>
+      <c r="D520" s="4"/>
+      <c r="E520" s="4"/>
+      <c r="F520" s="4"/>
+      <c r="G520" s="4"/>
+      <c r="H520" s="4"/>
+      <c r="I520" s="4"/>
+      <c r="J520" s="4"/>
+      <c r="K520" s="3"/>
       <c r="L520" s="4"/>
       <c r="M520" s="4"/>
       <c r="N520" s="4"/>
@@ -28621,33 +28716,6 @@
       <c r="X996" s="4"/>
       <c r="Y996" s="4"/>
     </row>
-    <row r="997" ht="12.75" customHeight="1">
-      <c r="A997" s="4"/>
-      <c r="B997" s="4"/>
-      <c r="C997" s="4"/>
-      <c r="D997" s="4"/>
-      <c r="E997" s="4"/>
-      <c r="F997" s="4"/>
-      <c r="G997" s="4"/>
-      <c r="H997" s="4"/>
-      <c r="I997" s="4"/>
-      <c r="J997" s="4"/>
-      <c r="K997" s="3"/>
-      <c r="L997" s="4"/>
-      <c r="M997" s="4"/>
-      <c r="N997" s="4"/>
-      <c r="O997" s="4"/>
-      <c r="P997" s="4"/>
-      <c r="Q997" s="4"/>
-      <c r="R997" s="4"/>
-      <c r="S997" s="4"/>
-      <c r="T997" s="4"/>
-      <c r="U997" s="4"/>
-      <c r="V997" s="4"/>
-      <c r="W997" s="4"/>
-      <c r="X997" s="4"/>
-      <c r="Y997" s="4"/>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0527777777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.0527777777777778"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="24">
   <si>
     <t>startDate</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Social Changes</t>
+  </si>
+  <si>
+    <t>OGB</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J50" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J61" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -2919,17 +2922,40 @@
       <c r="Y50" s="10"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="A51" s="5">
+        <v>45747.0</v>
+      </c>
+      <c r="B51" s="5">
+        <v>45748.0</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>19.0</v>
+      </c>
+      <c r="J51" s="8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
@@ -2946,17 +2972,40 @@
       <c r="Y51" s="10"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
+      <c r="A52" s="5">
+        <v>45751.0</v>
+      </c>
+      <c r="B52" s="5">
+        <v>45751.0</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="7">
+        <v>22.6</v>
+      </c>
+      <c r="F52" s="7">
+        <v>36.2</v>
+      </c>
+      <c r="G52" s="7">
+        <v>8.3</v>
+      </c>
+      <c r="H52" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="I52" s="7">
+        <v>17.4</v>
+      </c>
+      <c r="J52" s="8">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+      <c r="K52" s="9">
+        <v>7.2</v>
+      </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
@@ -2973,17 +3022,40 @@
       <c r="Y52" s="10"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
+      <c r="A53" s="5">
+        <v>45751.0</v>
+      </c>
+      <c r="B53" s="5">
+        <v>45753.0</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="7">
+        <v>20.1</v>
+      </c>
+      <c r="F53" s="7">
+        <v>38.3</v>
+      </c>
+      <c r="G53" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="H53" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="I53" s="7">
+        <v>18.8</v>
+      </c>
+      <c r="J53" s="8">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="K53" s="9">
+        <v>8.5</v>
+      </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
@@ -3000,17 +3072,40 @@
       <c r="Y53" s="10"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
+      <c r="A54" s="5">
+        <v>45749.0</v>
+      </c>
+      <c r="B54" s="5">
+        <v>45753.0</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>36.0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="J54" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K54" s="9">
+        <v>7.0</v>
+      </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
@@ -3027,17 +3122,40 @@
       <c r="Y54" s="10"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+      <c r="A55" s="5">
+        <v>45754.0</v>
+      </c>
+      <c r="B55" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="7">
+        <v>20.1</v>
+      </c>
+      <c r="F55" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="G55" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="H55" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I55" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="J55" s="8">
+        <f t="shared" si="1"/>
+        <v>11.9</v>
+      </c>
+      <c r="K55" s="9">
+        <v>14.5</v>
+      </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
@@ -3054,17 +3172,40 @@
       <c r="Y55" s="10"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
+      <c r="A56" s="5">
+        <v>45754.0</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="J56" s="8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K56" s="9">
+        <v>7.0</v>
+      </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
@@ -3081,17 +3222,40 @@
       <c r="Y56" s="10"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
+      <c r="A57" s="5">
+        <v>45759.0</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45759.0</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="F57" s="7">
+        <v>33.5</v>
+      </c>
+      <c r="G57" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="H57" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I57" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="J57" s="8">
+        <f t="shared" si="1"/>
+        <v>4.4</v>
+      </c>
+      <c r="K57" s="9">
+        <v>7.8</v>
+      </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
@@ -3108,17 +3272,40 @@
       <c r="Y57" s="10"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
+      <c r="A58" s="5">
+        <v>45758.0</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45760.0</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="7">
+        <v>22.7</v>
+      </c>
+      <c r="F58" s="7">
+        <v>34.8</v>
+      </c>
+      <c r="G58" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="H58" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="I58" s="7">
+        <v>15.8</v>
+      </c>
+      <c r="J58" s="8">
+        <f t="shared" si="1"/>
+        <v>10.2</v>
+      </c>
+      <c r="K58" s="9">
+        <v>6.4</v>
+      </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
@@ -3135,17 +3322,40 @@
       <c r="Y58" s="10"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
+      <c r="A59" s="5">
+        <v>45761.0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="J59" s="8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K59" s="9">
+        <v>6.0</v>
+      </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
@@ -3162,17 +3372,40 @@
       <c r="Y59" s="10"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
+      <c r="A60" s="5">
+        <v>45762.0</v>
+      </c>
+      <c r="B60" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="J60" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K60" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
@@ -3189,17 +3422,40 @@
       <c r="Y60" s="10"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
+      <c r="A61" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="B61" s="5">
+        <v>45761.0</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="7">
+        <v>29.56</v>
+      </c>
+      <c r="F61" s="7">
+        <v>35.53</v>
+      </c>
+      <c r="G61" s="7">
+        <v>3.44</v>
+      </c>
+      <c r="H61" s="7">
+        <v>1.87</v>
+      </c>
+      <c r="I61" s="7">
+        <v>20.43</v>
+      </c>
+      <c r="J61" s="8">
+        <f t="shared" si="1"/>
+        <v>9.17</v>
+      </c>
+      <c r="K61" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
@@ -4242,31 +4498,31 @@
       <c r="Y99" s="10"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
       <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="10"/>
-      <c r="R100" s="10"/>
-      <c r="S100" s="10"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
-      <c r="V100" s="10"/>
-      <c r="W100" s="10"/>
-      <c r="X100" s="10"/>
-      <c r="Y100" s="10"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="14"/>
@@ -4305,7 +4561,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-      <c r="J102" s="8"/>
+      <c r="J102" s="3"/>
       <c r="K102" s="15"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -7023,17 +7279,17 @@
       <c r="Y202" s="4"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
-      <c r="A203" s="14"/>
-      <c r="B203" s="14"/>
-      <c r="C203" s="2"/>
+      <c r="A203" s="16"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="1"/>
       <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="15"/>
+      <c r="K203" s="3"/>
       <c r="L203" s="4"/>
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
@@ -7053,7 +7309,7 @@
       <c r="A204" s="16"/>
       <c r="B204" s="16"/>
       <c r="C204" s="1"/>
-      <c r="D204" s="2"/>
+      <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -7080,7 +7336,7 @@
       <c r="A205" s="16"/>
       <c r="B205" s="16"/>
       <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
+      <c r="D205" s="2"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -7107,7 +7363,7 @@
       <c r="A206" s="16"/>
       <c r="B206" s="16"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="2"/>
+      <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -7674,7 +7930,7 @@
       <c r="A227" s="16"/>
       <c r="B227" s="16"/>
       <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
+      <c r="D227" s="2"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -7701,7 +7957,7 @@
       <c r="A228" s="16"/>
       <c r="B228" s="16"/>
       <c r="C228" s="1"/>
-      <c r="D228" s="2"/>
+      <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -8025,7 +8281,7 @@
       <c r="A240" s="16"/>
       <c r="B240" s="16"/>
       <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
+      <c r="D240" s="2"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -8052,7 +8308,7 @@
       <c r="A241" s="16"/>
       <c r="B241" s="16"/>
       <c r="C241" s="1"/>
-      <c r="D241" s="2"/>
+      <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -8322,7 +8578,7 @@
       <c r="A251" s="16"/>
       <c r="B251" s="16"/>
       <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
+      <c r="D251" s="2"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -8349,7 +8605,7 @@
       <c r="A252" s="16"/>
       <c r="B252" s="16"/>
       <c r="C252" s="1"/>
-      <c r="D252" s="2"/>
+      <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -8535,8 +8791,8 @@
       <c r="Y258" s="4"/>
     </row>
     <row r="259" ht="12.75" customHeight="1">
-      <c r="A259" s="16"/>
-      <c r="B259" s="16"/>
+      <c r="A259" s="17"/>
+      <c r="B259" s="17"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -8562,17 +8818,17 @@
       <c r="Y259" s="4"/>
     </row>
     <row r="260" ht="12.75" customHeight="1">
-      <c r="A260" s="17"/>
-      <c r="B260" s="17"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
-      <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
-      <c r="I260" s="1"/>
+      <c r="A260" s="18"/>
+      <c r="B260" s="18"/>
+      <c r="C260" s="19"/>
+      <c r="D260" s="19"/>
+      <c r="E260" s="19"/>
+      <c r="F260" s="19"/>
+      <c r="G260" s="19"/>
+      <c r="H260" s="19"/>
+      <c r="I260" s="19"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="3"/>
+      <c r="K260" s="15"/>
       <c r="L260" s="4"/>
       <c r="M260" s="4"/>
       <c r="N260" s="4"/>
@@ -8590,7 +8846,7 @@
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="18"/>
-      <c r="B261" s="18"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="19"/>
       <c r="D261" s="19"/>
       <c r="E261" s="19"/>
@@ -8616,7 +8872,7 @@
       <c r="Y261" s="4"/>
     </row>
     <row r="262" ht="12.75" customHeight="1">
-      <c r="A262" s="18"/>
+      <c r="A262" s="20"/>
       <c r="B262" s="20"/>
       <c r="C262" s="19"/>
       <c r="D262" s="19"/>
@@ -12640,7 +12896,7 @@
     </row>
     <row r="411" ht="12.75" customHeight="1">
       <c r="A411" s="20"/>
-      <c r="B411" s="20"/>
+      <c r="B411" s="18"/>
       <c r="C411" s="19"/>
       <c r="D411" s="19"/>
       <c r="E411" s="19"/>
@@ -12693,7 +12949,7 @@
       <c r="Y412" s="4"/>
     </row>
     <row r="413" ht="12.75" customHeight="1">
-      <c r="A413" s="20"/>
+      <c r="A413" s="18"/>
       <c r="B413" s="18"/>
       <c r="C413" s="19"/>
       <c r="D413" s="19"/>
@@ -13044,8 +13300,8 @@
       <c r="Y425" s="4"/>
     </row>
     <row r="426" ht="12.75" customHeight="1">
-      <c r="A426" s="18"/>
-      <c r="B426" s="18"/>
+      <c r="A426" s="20"/>
+      <c r="B426" s="20"/>
       <c r="C426" s="19"/>
       <c r="D426" s="19"/>
       <c r="E426" s="19"/>
@@ -13180,7 +13436,7 @@
     </row>
     <row r="431" ht="12.75" customHeight="1">
       <c r="A431" s="20"/>
-      <c r="B431" s="20"/>
+      <c r="B431" s="18"/>
       <c r="C431" s="19"/>
       <c r="D431" s="19"/>
       <c r="E431" s="19"/>
@@ -13206,7 +13462,7 @@
       <c r="Y431" s="4"/>
     </row>
     <row r="432" ht="12.75" customHeight="1">
-      <c r="A432" s="20"/>
+      <c r="A432" s="18"/>
       <c r="B432" s="18"/>
       <c r="C432" s="19"/>
       <c r="D432" s="19"/>
@@ -13314,7 +13570,7 @@
       <c r="Y435" s="4"/>
     </row>
     <row r="436" ht="12.75" customHeight="1">
-      <c r="A436" s="18"/>
+      <c r="A436" s="20"/>
       <c r="B436" s="18"/>
       <c r="C436" s="19"/>
       <c r="D436" s="19"/>
@@ -13341,7 +13597,7 @@
       <c r="Y436" s="4"/>
     </row>
     <row r="437" ht="12.75" customHeight="1">
-      <c r="A437" s="20"/>
+      <c r="A437" s="18"/>
       <c r="B437" s="18"/>
       <c r="C437" s="19"/>
       <c r="D437" s="19"/>
@@ -13503,8 +13759,8 @@
       <c r="Y442" s="4"/>
     </row>
     <row r="443" ht="12.75" customHeight="1">
-      <c r="A443" s="18"/>
-      <c r="B443" s="18"/>
+      <c r="A443" s="20"/>
+      <c r="B443" s="20"/>
       <c r="C443" s="19"/>
       <c r="D443" s="19"/>
       <c r="E443" s="19"/>
@@ -13638,8 +13894,8 @@
       <c r="Y447" s="4"/>
     </row>
     <row r="448" ht="12.75" customHeight="1">
-      <c r="A448" s="20"/>
-      <c r="B448" s="20"/>
+      <c r="A448" s="18"/>
+      <c r="B448" s="18"/>
       <c r="C448" s="19"/>
       <c r="D448" s="19"/>
       <c r="E448" s="19"/>
@@ -13665,7 +13921,7 @@
       <c r="Y448" s="4"/>
     </row>
     <row r="449" ht="12.75" customHeight="1">
-      <c r="A449" s="18"/>
+      <c r="A449" s="20"/>
       <c r="B449" s="18"/>
       <c r="C449" s="19"/>
       <c r="D449" s="19"/>
@@ -13719,7 +13975,7 @@
       <c r="Y450" s="4"/>
     </row>
     <row r="451" ht="12.75" customHeight="1">
-      <c r="A451" s="20"/>
+      <c r="A451" s="18"/>
       <c r="B451" s="18"/>
       <c r="C451" s="19"/>
       <c r="D451" s="19"/>
@@ -13936,7 +14192,7 @@
     </row>
     <row r="459" ht="12.75" customHeight="1">
       <c r="A459" s="18"/>
-      <c r="B459" s="18"/>
+      <c r="B459" s="20"/>
       <c r="C459" s="19"/>
       <c r="D459" s="19"/>
       <c r="E459" s="19"/>
@@ -13962,7 +14218,7 @@
       <c r="Y459" s="4"/>
     </row>
     <row r="460" ht="12.75" customHeight="1">
-      <c r="A460" s="18"/>
+      <c r="A460" s="20"/>
       <c r="B460" s="20"/>
       <c r="C460" s="19"/>
       <c r="D460" s="19"/>
@@ -15582,17 +15838,17 @@
       <c r="Y519" s="4"/>
     </row>
     <row r="520" ht="12.75" customHeight="1">
-      <c r="A520" s="20"/>
-      <c r="B520" s="20"/>
-      <c r="C520" s="19"/>
-      <c r="D520" s="19"/>
-      <c r="E520" s="19"/>
-      <c r="F520" s="19"/>
-      <c r="G520" s="19"/>
-      <c r="H520" s="19"/>
-      <c r="I520" s="19"/>
-      <c r="J520" s="3"/>
-      <c r="K520" s="15"/>
+      <c r="A520" s="4"/>
+      <c r="B520" s="4"/>
+      <c r="C520" s="4"/>
+      <c r="D520" s="4"/>
+      <c r="E520" s="4"/>
+      <c r="F520" s="4"/>
+      <c r="G520" s="4"/>
+      <c r="H520" s="4"/>
+      <c r="I520" s="4"/>
+      <c r="J520" s="4"/>
+      <c r="K520" s="3"/>
       <c r="L520" s="4"/>
       <c r="M520" s="4"/>
       <c r="N520" s="4"/>
@@ -28460,33 +28716,6 @@
       <c r="X996" s="4"/>
       <c r="Y996" s="4"/>
     </row>
-    <row r="997" ht="12.75" customHeight="1">
-      <c r="A997" s="4"/>
-      <c r="B997" s="4"/>
-      <c r="C997" s="4"/>
-      <c r="D997" s="4"/>
-      <c r="E997" s="4"/>
-      <c r="F997" s="4"/>
-      <c r="G997" s="4"/>
-      <c r="H997" s="4"/>
-      <c r="I997" s="4"/>
-      <c r="J997" s="4"/>
-      <c r="K997" s="3"/>
-      <c r="L997" s="4"/>
-      <c r="M997" s="4"/>
-      <c r="N997" s="4"/>
-      <c r="O997" s="4"/>
-      <c r="P997" s="4"/>
-      <c r="Q997" s="4"/>
-      <c r="R997" s="4"/>
-      <c r="S997" s="4"/>
-      <c r="T997" s="4"/>
-      <c r="U997" s="4"/>
-      <c r="V997" s="4"/>
-      <c r="W997" s="4"/>
-      <c r="X997" s="4"/>
-      <c r="Y997" s="4"/>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0527777777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.0527777777777778"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="24">
   <si>
     <t>startDate</t>
   </si>
@@ -500,7 +500,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J61" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J65" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -3472,17 +3472,40 @@
       <c r="Y61" s="10"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
+      <c r="A62" s="5">
+        <v>45761.0</v>
+      </c>
+      <c r="B62" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="F62" s="7">
+        <v>34.1</v>
+      </c>
+      <c r="G62" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="H62" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="I62" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="J62" s="8">
+        <f t="shared" si="1"/>
+        <v>12.8</v>
+      </c>
+      <c r="K62" s="9">
+        <v>9.3</v>
+      </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
@@ -3499,17 +3522,40 @@
       <c r="Y62" s="10"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+      <c r="A63" s="5">
+        <v>45762.0</v>
+      </c>
+      <c r="B63" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="G63" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="J63" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K63" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
@@ -3526,17 +3572,40 @@
       <c r="Y63" s="10"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
+      <c r="A64" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="B64" s="5">
+        <v>45764.0</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="F64" s="7">
+        <v>30.8</v>
+      </c>
+      <c r="G64" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="H64" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="I64" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="J64" s="8">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="K64" s="9">
+        <v>9.9</v>
+      </c>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
@@ -3553,17 +3622,40 @@
       <c r="Y64" s="10"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
+      <c r="A65" s="5">
+        <v>45764.0</v>
+      </c>
+      <c r="B65" s="5">
+        <v>45765.0</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="G65" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="J65" s="8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K65" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="24">
   <si>
     <t>startDate</t>
   </si>
@@ -500,7 +500,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J65" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J66" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -3672,17 +3672,40 @@
       <c r="Y65" s="10"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
+      <c r="A66" s="5">
+        <v>45764.0</v>
+      </c>
+      <c r="B66" s="5">
+        <v>45766.0</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="F66" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="G66" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="H66" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="I66" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="J66" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K66" s="9">
+        <v>5.9</v>
+      </c>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="24">
   <si>
     <t>startDate</t>
   </si>
@@ -500,7 +500,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J66" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J68" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -3722,17 +3722,40 @@
       <c r="Y66" s="10"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
+      <c r="A67" s="11">
+        <v>45769.0</v>
+      </c>
+      <c r="B67" s="11">
+        <v>45771.0</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="H67" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="J67" s="8">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K67" s="9">
+        <v>7.0</v>
+      </c>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
@@ -3749,17 +3772,40 @@
       <c r="Y67" s="10"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
+      <c r="A68" s="5">
+        <v>45772.0</v>
+      </c>
+      <c r="B68" s="5">
+        <v>45773.0</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="F68" s="7">
+        <v>33.2</v>
+      </c>
+      <c r="G68" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="H68" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="I68" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="J68" s="8">
+        <f t="shared" si="1"/>
+        <v>8.7</v>
+      </c>
+      <c r="K68" s="9">
+        <v>9.8</v>
+      </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="24">
   <si>
     <t>startDate</t>
   </si>
@@ -500,7 +500,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J68" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J70" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -3822,17 +3822,40 @@
       <c r="Y68" s="10"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
+      <c r="A69" s="5">
+        <v>45775.0</v>
+      </c>
+      <c r="B69" s="5">
+        <v>45776.0</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="H69" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="J69" s="8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K69" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
@@ -3849,17 +3872,40 @@
       <c r="Y69" s="10"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
+      <c r="A70" s="5">
+        <v>45775.0</v>
+      </c>
+      <c r="B70" s="5">
+        <v>45776.0</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="F70" s="7">
+        <v>31.6</v>
+      </c>
+      <c r="G70" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="I70" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="J70" s="8">
+        <f t="shared" si="1"/>
+        <v>11.3</v>
+      </c>
+      <c r="K70" s="9">
+        <v>6.0</v>
+      </c>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="24">
   <si>
     <t>startDate</t>
   </si>
@@ -500,7 +500,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J70" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J72" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -3922,17 +3922,40 @@
       <c r="Y70" s="10"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
+      <c r="A71" s="5">
+        <v>45783.0</v>
+      </c>
+      <c r="B71" s="5">
+        <v>45784.0</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="G71" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="J71" s="8">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K71" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
@@ -3949,17 +3972,40 @@
       <c r="Y71" s="10"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
+      <c r="A72" s="5">
+        <v>45784.0</v>
+      </c>
+      <c r="B72" s="5">
+        <v>45785.0</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="7">
+        <v>22.7</v>
+      </c>
+      <c r="F72" s="7">
+        <v>32.26</v>
+      </c>
+      <c r="G72" s="7">
+        <v>8.36</v>
+      </c>
+      <c r="H72" s="7">
+        <v>5.52</v>
+      </c>
+      <c r="I72" s="7">
+        <v>13.58</v>
+      </c>
+      <c r="J72" s="8">
+        <f t="shared" si="1"/>
+        <v>17.58</v>
+      </c>
+      <c r="K72" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="24">
   <si>
     <t>startDate</t>
   </si>
@@ -500,7 +500,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J72" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J73" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -4022,17 +4022,40 @@
       <c r="Y72" s="10"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
+      <c r="A73" s="5">
+        <v>45784.0</v>
+      </c>
+      <c r="B73" s="5">
+        <v>45784.0</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="7">
+        <v>23.2</v>
+      </c>
+      <c r="F73" s="7">
+        <v>33.2</v>
+      </c>
+      <c r="G73" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="H73" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="I73" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="J73" s="8">
+        <f t="shared" si="1"/>
+        <v>21.1</v>
+      </c>
+      <c r="K73" s="9">
+        <v>5.2</v>
+      </c>
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="24">
   <si>
     <t>startDate</t>
   </si>
@@ -500,7 +500,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J73" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J74" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -4072,17 +4072,40 @@
       <c r="Y73" s="10"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
+      <c r="A74" s="5">
+        <v>45787.0</v>
+      </c>
+      <c r="B74" s="5">
+        <v>45788.0</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="F74" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="G74" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="H74" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I74" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="J74" s="8">
+        <f t="shared" si="1"/>
+        <v>12.3</v>
+      </c>
+      <c r="K74" s="9">
+        <v>5.1</v>
+      </c>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -4047,11 +4047,11 @@
         <v>6.1</v>
       </c>
       <c r="I73" s="7">
-        <v>3.7</v>
+        <v>13.6</v>
       </c>
       <c r="J73" s="8">
         <f t="shared" si="1"/>
-        <v>21.1</v>
+        <v>11.2</v>
       </c>
       <c r="K73" s="9">
         <v>5.2</v>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="24">
   <si>
     <t>startDate</t>
   </si>
@@ -500,7 +500,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J74" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J75" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -4122,17 +4122,40 @@
       <c r="Y74" s="10"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
+      <c r="A75" s="5">
+        <v>45788.0</v>
+      </c>
+      <c r="B75" s="5">
+        <v>45789.0</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="F75" s="7">
+        <v>32.3</v>
+      </c>
+      <c r="G75" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="H75" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="I75" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="J75" s="8">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="K75" s="9">
+        <v>6.4</v>
+      </c>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="24">
   <si>
     <t>startDate</t>
   </si>
@@ -500,7 +500,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J75" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J79" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -4172,17 +4172,40 @@
       <c r="Y75" s="10"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
+      <c r="A76" s="5">
+        <v>45789.0</v>
+      </c>
+      <c r="B76" s="5">
+        <v>45790.0</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="F76" s="7">
+        <v>32.6</v>
+      </c>
+      <c r="G76" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="H76" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="J76" s="8">
+        <f t="shared" si="1"/>
+        <v>10.9</v>
+      </c>
+      <c r="K76" s="9">
+        <v>8.0</v>
+      </c>
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
@@ -4199,17 +4222,40 @@
       <c r="Y76" s="10"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
+      <c r="A77" s="5">
+        <v>45790.0</v>
+      </c>
+      <c r="B77" s="5">
+        <v>45791.0</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="F77" s="7">
+        <v>32.4</v>
+      </c>
+      <c r="G77" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="H77" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="I77" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="J77" s="8">
+        <f t="shared" si="1"/>
+        <v>17.3</v>
+      </c>
+      <c r="K77" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
@@ -4226,17 +4272,40 @@
       <c r="Y77" s="10"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
+      <c r="A78" s="5">
+        <v>45790.0</v>
+      </c>
+      <c r="B78" s="5">
+        <v>45792.0</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="F78" s="7">
+        <v>34.2</v>
+      </c>
+      <c r="G78" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="H78" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="I78" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="J78" s="8">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="K78" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
@@ -4253,17 +4322,40 @@
       <c r="Y78" s="10"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
+      <c r="A79" s="5">
+        <v>45791.0</v>
+      </c>
+      <c r="B79" s="5">
+        <v>45792.0</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="H79" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="J79" s="8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K79" s="9">
+        <v>3.0</v>
+      </c>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>

--- a/polldata_pres_R1.xlsx
+++ b/polldata_pres_R1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="24">
   <si>
     <t>startDate</t>
   </si>
@@ -500,7 +500,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J79" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
+        <f t="shared" ref="J2:J85" si="1">100-sum(E2+F2+G2+H2+I2+K2)</f>
         <v>7.1</v>
       </c>
       <c r="K2" s="9">
@@ -4372,17 +4372,40 @@
       <c r="Y79" s="10"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
+      <c r="A80" s="5">
+        <v>45790.0</v>
+      </c>
+      <c r="B80" s="5">
+        <v>45792.0</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="7">
+        <v>27.5</v>
+      </c>
+      <c r="F80" s="7">
+        <v>32.7</v>
+      </c>
+      <c r="G80" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="H80" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="I80" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="J80" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K80" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
@@ -4399,17 +4422,40 @@
       <c r="Y80" s="10"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
+      <c r="A81" s="5">
+        <v>45790.0</v>
+      </c>
+      <c r="B81" s="5">
+        <v>45792.0</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="F81" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="G81" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="H81" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="I81" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="J81" s="8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K81" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L81" s="10"/>
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
@@ -4426,17 +4472,40 @@
       <c r="Y81" s="10"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
+      <c r="A82" s="5">
+        <v>45789.0</v>
+      </c>
+      <c r="B82" s="5">
+        <v>45791.0</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>29.7</v>
+      </c>
+      <c r="G82" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="H82" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="J82" s="8">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="K82" s="9">
+        <v>6.2</v>
+      </c>
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
@@ -4453,17 +4522,40 @@
       <c r="Y82" s="10"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
+      <c r="A83" s="5">
+        <v>45790.0</v>
+      </c>
+      <c r="B83" s="5">
+        <v>45792.0</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="G83" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="J83" s="8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K83" s="9">
+        <v>6.0</v>
+      </c>
       <c r="L83" s="10"/>
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
@@ -4480,17 +4572,40 @@
       <c r="Y83" s="10"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
+      <c r="A84" s="5">
+        <v>45790.0</v>
+      </c>
+      <c r="B84" s="5">
+        <v>45792.0</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="F84" s="7">
+        <v>31.1</v>
+      </c>
+      <c r="G84" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="H84" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="I84" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="J84" s="8">
+        <f t="shared" si="1"/>
+        <v>9.2</v>
+      </c>
+      <c r="K84" s="9">
+        <v>7.1</v>
+      </c>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
@@ -4507,17 +4622,40 @@
       <c r="Y84" s="10"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
+      <c r="A85" s="5">
+        <v>45791.0</v>
+      </c>
+      <c r="B85" s="5">
+        <v>45792.0</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="H85" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="J85" s="8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K85" s="9">
+        <v>3.0</v>
+      </c>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
